--- a/protocol/protocol_ver5.xlsx
+++ b/protocol/protocol_ver5.xlsx
@@ -15,12 +15,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,15 +69,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 리스트 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 선택/취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적절한 post 신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/noti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 아직 확인하지 않은 알림 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/noti/{noti_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 확인한 알림을 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist로 검색하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash_tage로 검색하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간으로 검색하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그는 회원가입시 이미 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그아웃 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/shows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{post_id}/replies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{post_id}/report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/works</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/show/{post_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/show/{post_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/work/{post_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>문화 콘텐츠 list 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화 콘텐츠 상세정보 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술 콘텐츠 list 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술 콘텐츠 정보저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술 콘텐츠 상세정보 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술 콘텐츠 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 콘테츠 list가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화 콘텐츠 정보 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화 콘텐츠 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그 정보 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그 정보 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>댓글 리스트 가져오기</t>
+    <t>공간 블로그 프로필 사진 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그 프로필 사진 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그 삭제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그 프로필 사진 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그 프로필 사진 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간/개인 블로그 배경 사진 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간/개인 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간/개인 블로그의 팬 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간/개인 블로그 팬 신청/취소하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간/개인 블로그 i miss you를 한 회원 목록 가져오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,7 +317,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>댓글 작성</t>
+    <t>공간/개인 블로그 i miss you를 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{post_id}/{like_status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_status : like(좋아요 선택), unlike(좋아요 취소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fan_status : fan(팬 추가), unfan(팬 취소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 탭 url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 블로거가 등록한 예술 콘텐츠 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 블로거가 좋아요 한 예술콘텐츠 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간/개인 블로그의 예술가 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그 위치 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key, page로 parameter받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/hash_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search/space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 검색하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그의 위치 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간블로그에서만 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시태그 검색 결과 list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts재활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/active_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 회원 (_id, 닉네임, 프로필사진) 가져오기(전 /menu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 활동모드 변경하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,19 +433,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좋아요 선택/취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부적절한 post 신고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/noti</t>
+    <t>바디에 블로그 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그 프로필 수정하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,55 +453,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원이 아직 확인하지 않은 알림 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/noti/{noti_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원이 확인한 알림을 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>artist로 검색하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash_tage로 검색하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간으로 검색하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 등록하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그는 회원가입시 이미 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그아웃 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/shows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
+    <t>공간 블로그 프로필 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 블로그 프로필 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그 프로필 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 블로그 프로필 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/space/{blog_id}</t>
+  </si>
+  <si>
+    <t>/blog/space/{blog_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/space/{blog_id}/profile_photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/space/{blog_id}/location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/space/{blog_id}/profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/space/{blog_id}/profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/{blog_id}</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/profile_photo</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/profile</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/bg</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/my_fans</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/my_artists</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/imissyous</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/imissyou</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/my_works</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/my_likes</t>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/my_location</t>
+  </si>
+  <si>
+    <t>key : 사용자 입력값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email 중복체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본 프로필 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/email_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/fan/{fan_status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 블로거가 참여/등록 좋아요 문화 콘텐츠 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/{blog_id}/my_shows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type : 0(my 문화), 1(좋아요 문화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">댓글은… 개수만.. 보냄… reply_cnt로  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디 인코딩 땜시 보류….. ㅠㅜㅠㅜㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,43 +573,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/post/{post_id}/report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/works</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/show/{post_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/show/{post_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/work/{post_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/posts</t>
+    <t>콘텐츠 삭제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{post_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,367 +585,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문화 콘텐츠 list 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화 콘텐츠 상세정보 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술 콘텐츠 list 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술 콘텐츠 정보저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술 콘텐츠 상세정보 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술 콘텐츠 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술 콘텐츠 삭제하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 콘테츠 list가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화 콘텐츠 정보 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화 콘텐츠 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화 콘텐츠 정보 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 정보 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그 정보 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 프로필 사진 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 프로필 사진 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 삭제하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그 프로필 사진 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그 프로필 사진 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간/개인 블로그 배경 사진 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간/개인 블로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간/개인 블로그의 팬 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간/개인 블로그 팬 신청/취소하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간/개인 블로그 i miss you를 한 회원 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간/개인 블로그 i miss you를 등록하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{post_id}/{like_status}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>like_status : like(좋아요 선택), unlike(좋아요 취소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fan_status : fan(팬 추가), unfan(팬 취소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블로그 탭 url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 블로거가 등록한 예술 콘텐츠 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 블로거가 좋아요 한 예술콘텐츠 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간/개인 블로그의 예술가 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 위치 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key, page로 parameter받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/hash_tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/artist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/search/space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 검색하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그의 위치 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간블로그에서만 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해시태그 검색 결과 list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/posts재활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/active_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 회원 (_id, 닉네임, 프로필사진) 가져오기(전 /menu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 활동모드 변경하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바디에 블로그 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그 프로필 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 프로필 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간 블로그 프로필 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그 프로필 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 블로그 프로필 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/space/{blog_id}</t>
-  </si>
-  <si>
-    <t>/blog/space/{blog_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/space/{blog_id}/profile_photo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/space/{blog_id}/location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/space/{blog_id}/profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/space/{blog_id}/profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/{blog_id}</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/profile_photo</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/profile</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/bg</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/my_fans</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/my_artists</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/imissyous</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/imissyou</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/my_works</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/my_likes</t>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/my_location</t>
-  </si>
-  <si>
-    <t>key : 사용자 입력값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email 중복체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본 프로필 사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/email_check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/fan/{fan_status}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 블로거가 참여/등록 좋아요 문화 콘텐츠 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/{blog_id}/my_shows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type : 0(my 문화), 1(좋아요 문화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">댓글은… 개수만.. 보냄… reply_cnt로  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바디 인코딩 땜시 보류….. ㅠㅜㅠㅜㅠ</t>
+    <t>댓글 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +617,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +648,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +701,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,12 +1071,12 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1056,18 +1087,18 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1078,126 +1109,129 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
@@ -1205,499 +1239,499 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
         <v>110</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>22</v>
-      </c>
-      <c r="D54" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
